--- a/Excel_Entrada/PLANTILLA_RESULTADOS_POSTCALIBRACION.xlsx
+++ b/Excel_Entrada/PLANTILLA_RESULTADOS_POSTCALIBRACION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCP Effio\Documents\Actualizar_formatos_priorizacion\Excel_Entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F1F5A0-712B-487B-B345-106FE9B6AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90148A2-9802-43C1-A7D0-5EA86E9A0B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1800" windowWidth="29040" windowHeight="15840" tabRatio="639" activeTab="3" xr2:uid="{FDBDEF47-D0A8-4EED-B596-CAC2BF593973}"/>
+    <workbookView xWindow="28680" yWindow="1800" windowWidth="29040" windowHeight="15840" tabRatio="639" xr2:uid="{FDBDEF47-D0A8-4EED-B596-CAC2BF593973}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
@@ -24,33 +24,33 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$AC$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Resumen TMs'!$B$5:$G$110</definedName>
-    <definedName name="_xlcn.WorksheetConnection_BASE_04042022A1V53221" hidden="1">BASE!$A$1:$AC$2</definedName>
-    <definedName name="_xlcn.WorksheetConnection_PLANTILLA_RESULTADOS_POSTCALIBRACION.xlsxBASE1" hidden="1">BASE[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_BASE_04042022A1V5322" hidden="1">BASE!$A$1:$AC$2</definedName>
+    <definedName name="_xlcn.WorksheetConnection_PLANTILLA_RESULTADOS_POSTCALIBRACION.xlsxBASE" hidden="1">BASE[]</definedName>
     <definedName name="SegmentaciónDeDatos_RangoMesesCalificado">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_RangoMesesCalificado1">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_RolCalificado">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
-    <pivotCache cacheId="4" r:id="rId12"/>
-    <pivotCache cacheId="5" r:id="rId13"/>
-    <pivotCache cacheId="6" r:id="rId14"/>
-    <pivotCache cacheId="7" r:id="rId15"/>
-    <pivotCache cacheId="8" r:id="rId16"/>
-    <pivotCache cacheId="9" r:id="rId17"/>
-    <pivotCache cacheId="10" r:id="rId18"/>
-    <pivotCache cacheId="11" r:id="rId19"/>
-    <pivotCache cacheId="12" r:id="rId20"/>
+    <pivotCache cacheId="11" r:id="rId8"/>
+    <pivotCache cacheId="12" r:id="rId9"/>
+    <pivotCache cacheId="13" r:id="rId10"/>
+    <pivotCache cacheId="14" r:id="rId11"/>
+    <pivotCache cacheId="15" r:id="rId12"/>
+    <pivotCache cacheId="16" r:id="rId13"/>
+    <pivotCache cacheId="17" r:id="rId14"/>
+    <pivotCache cacheId="18" r:id="rId15"/>
+    <pivotCache cacheId="19" r:id="rId16"/>
+    <pivotCache cacheId="20" r:id="rId17"/>
+    <pivotCache cacheId="21" r:id="rId18"/>
+    <pivotCache cacheId="22" r:id="rId19"/>
+    <pivotCache cacheId="23" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="13" r:id="rId21"/>
-        <pivotCache cacheId="14" r:id="rId22"/>
+        <pivotCache cacheId="24" r:id="rId21"/>
+        <pivotCache cacheId="25" r:id="rId22"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -105,7 +105,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Rango" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_BASE_04042022A1V53221"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_BASE_04042022A1V5322"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -114,7 +114,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="BASE" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_PLANTILLA_RESULTADOS_POSTCALIBRACION.xlsxBASE1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_PLANTILLA_RESULTADOS_POSTCALIBRACION.xlsxBASE"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="210">
   <si>
     <t>Chapter</t>
   </si>
@@ -816,6 +816,9 @@
   <si>
     <t>B9</t>
   </si>
+  <si>
+    <t>TipoEvaluacion</t>
+  </si>
 </sst>
 </file>
 
@@ -1145,7 +1148,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -10924,28 +10946,120 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D9FD945-84BA-4BDB-8204-0B861D816DC5}" name="TablaDinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B16:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB6CF219-0082-4DF4-9DAF-8022D52C0DC3}" name="TablaDinámica14" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B20:D26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
+  <dataFields count="2">
+    <dataField name="Recuento distinto de MatriculaCalificado" fld="1" subtotal="count" baseField="0" baseItem="0">
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
           <x15:dataField isCountDistinct="1"/>
         </ext>
       </extLst>
     </dataField>
+    <dataField name="Recuento distinto de MatriculaCalificado2" fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField sourceField="1" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
+        </ext>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
   </dataFields>
-  <pivotHierarchies count="75">
+  <conditionalFormats count="2">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotHierarchies count="76">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -11021,14 +11135,27 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
+          <x14:pivotHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotHierarchy>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="20"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_BASE_04042022!$A$1:$V$5322">
         <x15:activeTabTopLevelEntity name="[Rango]"/>
         <x15:activeTabTopLevelEntity name="[BASE]"/>
       </x15:pivotTableUISettings>
@@ -11041,19 +11168,59 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{831C5A9E-B3C6-46AB-B3ED-4F575BF6C520}" name="TablaDinámica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B20:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3538DE09-9B09-4305-A425-B1334D9E97D3}" name="TablaDinámica8" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="21">
+  <location ref="B79:D84" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
@@ -11061,8 +11228,57 @@
         </ext>
       </extLst>
     </dataField>
+    <dataField name="Recuento distinto de MatriculaCalificado2" fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField sourceField="0" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
+        </ext>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
   </dataFields>
-  <pivotHierarchies count="75">
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="2">
+    <chartFormat chart="20" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="76">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -11125,21 +11341,34 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
+          <x14:pivotHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotHierarchy>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="26"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -11158,7 +11387,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7412835A-6F76-47F3-976F-742FDEB0D1E0}" name="TablaDinámica10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7412835A-6F76-47F3-976F-742FDEB0D1E0}" name="TablaDinámica10" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="17">
   <location ref="A4:U110" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -11702,7 +11931,7 @@
     <dataField name="Promedio de IdNivelCapability" fld="4" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -11825,7 +12054,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DB78E7A-73D7-49C3-AB62-D4945D77AF24}" name="TablaDinámica14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DB78E7A-73D7-49C3-AB62-D4945D77AF24}" name="TablaDinámica14" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A4:T131" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -12449,14 +12678,14 @@
     <dataField name="Promedio de IdNivelCapability" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12583,7 +12812,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEB56723-BF5A-4D4D-A519-EF688A8FC184}" name="TablaDinámica19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEB56723-BF5A-4D4D-A519-EF688A8FC184}" name="TablaDinámica19" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A3:E129" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -13136,7 +13365,7 @@
     <dataField name="Promedio de IdNivelCultural" fld="5" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -13249,7 +13478,124 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D820AEA-4458-4880-A55B-0C8A7A4CFD2B}" name="TablaDinámica13" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D9FD945-84BA-4BDB-8204-0B861D816DC5}" name="TablaDinámica1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B16:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <pivotHierarchies count="75">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Rango]"/>
+        <x15:activeTabTopLevelEntity name="[BASE]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D820AEA-4458-4880-A55B-0C8A7A4CFD2B}" name="TablaDinámica13" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="17">
   <location ref="B46:D53" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -13414,8 +13760,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE3CC338-74BB-4C8F-8884-6008D3A508AF}" name="TablaDinámica12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE3CC338-74BB-4C8F-8884-6008D3A508AF}" name="TablaDinámica12" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B76:H110" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -13700,20 +14046,19 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB6CF219-0082-4DF4-9DAF-8022D52C0DC3}" name="TablaDinámica14" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B20:D26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8738611F-3449-45D5-9695-D776E2BCB93D}" name="TablaDinámica7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="20">
+  <location ref="B65:D70" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
         <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
       <extLst>
@@ -13724,9 +14069,9 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -13738,9 +14083,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -13758,7 +14100,7 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Recuento distinto de MatriculaCalificado" fld="1" subtotal="count" baseField="0" baseItem="0">
+    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
           <x15:dataField isCountDistinct="1"/>
@@ -13768,7 +14110,7 @@
     <dataField name="Recuento distinto de MatriculaCalificado2" fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField sourceField="1" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
+          <x14:dataField sourceField="0" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
         </ext>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
           <x15:dataField isCountDistinct="1"/>
@@ -13776,7 +14118,7 @@
       </extLst>
     </dataField>
   </dataFields>
-  <conditionalFormats count="2">
+  <conditionalFormats count="1">
     <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -13784,25 +14126,449 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="1"/>
             </reference>
-            <reference field="0" count="5" selected="0">
+            <reference field="1" count="4" selected="0">
               <x v="0"/>
               <x v="1"/>
               <x v="2"/>
               <x v="3"/>
-              <x v="4"/>
             </reference>
           </references>
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+  </conditionalFormats>
+  <chartFormats count="2">
+    <chartFormat chart="19" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="76">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
+          <x14:pivotHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotHierarchy>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="24"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Rango]"/>
+        <x15:activeTabTopLevelEntity name="[BASE]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{699AB8FF-1E9A-45BF-A798-1ABC9535DE82}" name="TablaDinámica5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="21">
+  <location ref="B53:D58" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+    <dataField name="Recuento distinto de MatriculaCalificado2" fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField sourceField="0" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
+        </ext>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="1"/>
             </reference>
-            <reference field="0" count="5" selected="0">
+            <reference field="1" count="4" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="2">
+    <chartFormat chart="18" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="76">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
+          <x14:pivotHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotHierarchy>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="22"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Rango]"/>
+        <x15:activeTabTopLevelEntity name="[BASE]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EEAFDE3-A798-4F10-B633-9556A485A8A4}" name="TablaDinámica4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="20">
+  <location ref="B41:D47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField ignore="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+    <dataField name="Recuento distinto de MatriculaCalificado2" fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField sourceField="0" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
+        </ext>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="5" selected="0">
               <x v="0"/>
               <x v="1"/>
               <x v="2"/>
@@ -13814,6 +14580,26 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
+  <chartFormats count="2">
+    <chartFormat chart="19" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotHierarchies count="76">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -13877,7 +14663,7 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -13900,7 +14686,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="20"/>
+    <rowHierarchyUsage hierarchyUsage="49"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -13910,7 +14696,7 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_BASE_04042022!$A$1:$V$5322">
+      <x15:pivotTableUISettings>
         <x15:activeTabTopLevelEntity name="[Rango]"/>
         <x15:activeTabTopLevelEntity name="[BASE]"/>
       </x15:pivotTableUISettings>
@@ -13922,8 +14708,125 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDC31917-6962-44B8-B86A-E7AB5773A008}" name="TablaDinámica9" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="28">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{831C5A9E-B3C6-46AB-B3ED-4F575BF6C520}" name="TablaDinámica3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B20:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <pivotHierarchies count="75">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Rango]"/>
+        <x15:activeTabTopLevelEntity name="[BASE]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDC31917-6962-44B8-B86A-E7AB5773A008}" name="TablaDinámica9" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="28">
   <location ref="B27:D33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -14135,887 +15038,6 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
       <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[BASE]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3538DE09-9B09-4305-A425-B1334D9E97D3}" name="TablaDinámica8" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="21">
-  <location ref="B79:D84" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-    <dataField name="Recuento distinto de MatriculaCalificado2" fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField sourceField="0" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
-        </ext>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="2">
-    <chartFormat chart="20" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="20" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="76">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
-          <x14:pivotHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotHierarchy>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="26"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Rango]"/>
-        <x15:activeTabTopLevelEntity name="[BASE]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8738611F-3449-45D5-9695-D776E2BCB93D}" name="TablaDinámica7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="20">
-  <location ref="B65:D70" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-    <dataField name="Recuento distinto de MatriculaCalificado2" fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField sourceField="0" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
-        </ext>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="2">
-    <chartFormat chart="19" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="76">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
-          <x14:pivotHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotHierarchy>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="24"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Rango]"/>
-        <x15:activeTabTopLevelEntity name="[BASE]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{699AB8FF-1E9A-45BF-A798-1ABC9535DE82}" name="TablaDinámica5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="21">
-  <location ref="B53:D58" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-    <dataField name="Recuento distinto de MatriculaCalificado2" fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField sourceField="0" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
-        </ext>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="4" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="2">
-    <chartFormat chart="18" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="76">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
-          <x14:pivotHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotHierarchy>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="22"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Rango]"/>
-        <x15:activeTabTopLevelEntity name="[BASE]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EEAFDE3-A798-4F10-B633-9556A485A8A4}" name="TablaDinámica4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="20">
-  <location ref="B41:D47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Recuento distinto de MatriculaCalificado" fld="0" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-    <dataField name="Recuento distinto de MatriculaCalificado2" fld="3" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField sourceField="0" uniqueName="[__Xl2].[Measures].[Recuento distinto de MatriculaCalificado 2]"/>
-        </ext>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="2">
-    <chartFormat chart="19" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="76">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de MatriculaCalificado2"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1" dragOff="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F1805F06-0CD3-4483-9156-8803C3D141DF}">
-          <x14:pivotHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </pivotHierarchy>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="49"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Rango]"/>
         <x15:activeTabTopLevelEntity name="[BASE]"/>
       </x15:pivotTableUISettings>
     </ext>
@@ -15148,9 +15170,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F41B05A-2CF4-4339-A02C-E402B124D38F}" name="BASE" displayName="BASE" ref="A1:AC2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:AC2" xr:uid="{383D5771-3993-44C1-A88A-4CF8FCD92721}"/>
-  <tableColumns count="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F41B05A-2CF4-4339-A02C-E402B124D38F}" name="BASE" displayName="BASE" ref="A1:AD2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:AD2" xr:uid="{383D5771-3993-44C1-A88A-4CF8FCD92721}"/>
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{C4CC4042-D29B-46EF-9908-463FB0AB2A0F}" name="MatriculaCalificador"/>
     <tableColumn id="2" xr3:uid="{FF879C8B-50F1-48E1-9214-CA7A6CE6EDD7}" name="NombresCalificador"/>
     <tableColumn id="3" xr3:uid="{FD07F400-99ED-4698-B225-DE6B7404B0C7}" name="RolCalificador"/>
@@ -15158,11 +15180,11 @@
     <tableColumn id="5" xr3:uid="{E797D9D1-E759-4F82-8AD2-CC85AD9EEE65}" name="MatriculaCalificado"/>
     <tableColumn id="6" xr3:uid="{E8C5C4D8-2745-4718-B906-3B382423A6FC}" name="NombresCalificado"/>
     <tableColumn id="7" xr3:uid="{E12831D6-175E-433F-B0F4-0A0620FF03AD}" name="CorreoCalificado"/>
-    <tableColumn id="8" xr3:uid="{B91F411B-14AD-4FBD-93AD-89ABE1AABF98}" name="FechaIngresoCalificado" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{C5D6C2BD-1F98-41D4-8A60-5AD24B4257B0}" name="DiffMesesCalificado" dataDxfId="15">
+    <tableColumn id="8" xr3:uid="{B91F411B-14AD-4FBD-93AD-89ABE1AABF98}" name="FechaIngresoCalificado" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{C5D6C2BD-1F98-41D4-8A60-5AD24B4257B0}" name="DiffMesesCalificado" dataDxfId="16">
       <calculatedColumnFormula>DATEDIF(H2,TODAY(),"m")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9C3BD2EA-AD99-4C04-8593-CFD093591172}" name="RangoMesesCalificado" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{9C3BD2EA-AD99-4C04-8593-CFD093591172}" name="RangoMesesCalificado" dataDxfId="15">
       <calculatedColumnFormula>IF(I2&lt;=3,"1. Menor o igual a 3 meses",IF(I2&lt;=6,"2. Entre 4 - 6 meses","3. Mayor a 6 meses"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{2AA9C563-CCB5-4EA7-9FA0-A29A709E46EE}" name="FlagNoEvidencidoCore">
@@ -15178,25 +15200,28 @@
     <tableColumn id="17" xr3:uid="{59756F10-8B8B-4934-A7A0-2DC4384FC6E2}" name="IdNivelCapability"/>
     <tableColumn id="18" xr3:uid="{31F2EB79-6036-46E7-875C-05B949B322E4}" name="NivelCapability"/>
     <tableColumn id="19" xr3:uid="{206271B5-58D1-4536-A317-07AD75EDB93D}" name="FlagConocimiento"/>
-    <tableColumn id="20" xr3:uid="{C4536151-DD62-44FA-ADB6-9D37C8C8A850}" name="IdNivelDomainExpertise" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{6E89691C-32BE-4A1E-978C-B71995E419D5}" name="NivelDomainExpertise" dataDxfId="12">
+    <tableColumn id="20" xr3:uid="{C4536151-DD62-44FA-ADB6-9D37C8C8A850}" name="IdNivelDomainExpertise" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{6E89691C-32BE-4A1E-978C-B71995E419D5}" name="NivelDomainExpertise" dataDxfId="13">
       <calculatedColumnFormula array="1">_xlfn.IFS(T2=0,"Prenovato",T2=1,"Novato",T2=2,"Principiante avanzado",T2=3,"Competente",T2=4,"Proficiente",T2=5,"Master")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{FE923540-A496-47CF-B79F-702F9B3A4E04}" name="IdNivelResolucion" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{3DB36776-1616-437C-A059-7DC1C0639167}" name="NivelResolucion" dataDxfId="10">
+    <tableColumn id="22" xr3:uid="{FE923540-A496-47CF-B79F-702F9B3A4E04}" name="IdNivelResolucion" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{3DB36776-1616-437C-A059-7DC1C0639167}" name="NivelResolucion" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(V2=0,"No evidenciado",V2=1,"Novato",V2=2,"Principiante avanzado",V2=3,"Competente",V2=4,"Proficiente",V2=5,"Master")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{3367E7CA-A51B-423E-BA7C-324A6702E5B8}" name="IdNivelLiderazgo" dataDxfId="9"/>
-    <tableColumn id="25" xr3:uid="{753674B2-5B26-485E-BA44-095E2C653A5A}" name="NivelLiderazgo" dataDxfId="8">
+    <tableColumn id="24" xr3:uid="{3367E7CA-A51B-423E-BA7C-324A6702E5B8}" name="IdNivelLiderazgo" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{753674B2-5B26-485E-BA44-095E2C653A5A}" name="NivelLiderazgo" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(X2=0,"No evidenciado",X2=1,"Novato",X2=2,"Principiante avanzado",X2=3,"Competente",X2=4,"Proficiente",X2=5,"Master")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{C6343BA3-F547-477B-A0CB-2EBF660156F6}" name="IdNivelCultural" dataDxfId="7"/>
-    <tableColumn id="27" xr3:uid="{7ADA5CB3-497C-4B52-A232-97504FEFFC58}" name="NivelCultural" dataDxfId="6">
+    <tableColumn id="26" xr3:uid="{C6343BA3-F547-477B-A0CB-2EBF660156F6}" name="IdNivelCultural" dataDxfId="8"/>
+    <tableColumn id="27" xr3:uid="{7ADA5CB3-497C-4B52-A232-97504FEFFC58}" name="NivelCultural" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.IFS(Z2=0,"No evidenciado",Z2=1,"Novato",Z2=2,"Principiante avanzado",Z2=3,"Competente",Z2=4,"Proficiente",Z2=5,"Master")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{D89895CD-E060-470E-ADC6-C3917E6D3254}" name="IdNivel" dataDxfId="5"/>
-    <tableColumn id="29" xr3:uid="{6441EA1C-5902-4AA1-8D3B-E48644D1C068}" name="Nivel" dataDxfId="4">
+    <tableColumn id="28" xr3:uid="{D89895CD-E060-470E-ADC6-C3917E6D3254}" name="IdNivel" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{6441EA1C-5902-4AA1-8D3B-E48644D1C068}" name="Nivel" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(AB2=0,"Prenovato",AB2=1,"Novato",AB2=2,"Principiante avanzado",AB2=3,"Competente",AB2=4,"Proficiente",AB2=5,"Master")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{0D4D67A6-88EF-41D2-9D55-4DFB7BE30C0E}" name="TipoEvaluacion" dataDxfId="0">
+      <calculatedColumnFormula>IF(A2&lt;&gt;E2,"EVALUACIÓN","AUTOEVALUACIÓN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15500,11 +15525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383D5771-3993-44C1-A88A-4CF8FCD92721}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15539,7 +15564,7 @@
     <col min="29" max="29" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15627,8 +15652,11 @@
       <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -15655,7 +15683,7 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">DATEDIF(H2,TODAY(),"m")</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="str">
         <f ca="1">IF(I2&lt;=3,"1. Menor o igual a 3 meses",IF(I2&lt;=6,"2. Entre 4 - 6 meses","3. Mayor a 6 meses"))</f>
@@ -15724,6 +15752,10 @@
       <c r="AC2" s="25" t="str" cm="1">
         <f t="array" ref="AC2">_xlfn.IFS(AB2=0,"Prenovato",AB2=1,"Novato",AB2=2,"Principiante avanzado",AB2=3,"Competente",AB2=4,"Proficiente",AB2=5,"Master")</f>
         <v>Proficiente</v>
+      </c>
+      <c r="AD2" s="25" t="str">
+        <f>IF(A2&lt;&gt;E2,"EVALUACIÓN","AUTOEVALUACIÓN")</f>
+        <v>EVALUACIÓN</v>
       </c>
     </row>
   </sheetData>
@@ -15738,7 +15770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C8AE89-D00D-4DB6-8A7A-E25EEB874FA8}">
   <dimension ref="B16:H110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
@@ -17228,7 +17260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED88BBE-68D4-4422-9D77-F912C8DF9538}">
   <dimension ref="B2:AF110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
